--- a/cases/gerd_roseires/data/2006_2007_blue_nile_daily_flows_at_eldaim.xlsx
+++ b/cases/gerd_roseires/data/2006_2007_blue_nile_daily_flows_at_eldaim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cvemo\Documents\my_stuff\flow-sim\cases\gerd_roseires\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{463892BF-BC6D-4A63-9763-D79DEC448568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCAC4A0-3779-4A1F-97E1-830C2D691231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="4" xr2:uid="{3CB45D6E-FB9C-472F-A3F1-B04029A572E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3CB45D6E-FB9C-472F-A3F1-B04029A572E4}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
     <sheet name="appended" sheetId="4" r:id="rId4"/>
     <sheet name="hourly" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -537,12 +550,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -599,6 +610,4173 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>raw!$A$1:$A$365</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="365"/>
+                <c:pt idx="0">
+                  <c:v>38899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38910</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38913</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38918</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38919</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38920</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38921</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38922</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38923</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38932</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38937</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38938</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38939</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38940</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>38941</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>38942</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38943</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>38944</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38945</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38946</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38947</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38948</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38949</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>38950</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>38951</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>38952</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>38953</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>38954</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>38955</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>38956</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>38957</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>38958</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>38959</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38960</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>38961</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>38962</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>38963</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>38964</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>38965</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>38966</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>38967</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>38968</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>38969</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>38970</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>38971</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>38972</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>38973</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38974</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38975</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38976</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>38977</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>38978</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>38979</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>38980</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>38981</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>38982</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>38983</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>38984</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>38985</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>38986</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>38987</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>38988</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>38989</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>38990</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>38991</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>38992</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>38993</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>38994</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>38995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>38996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>38997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>38998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>38999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>39001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>39002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>39003</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>39004</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>39005</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>39006</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>39007</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>39008</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>39009</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>39010</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>39011</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>39012</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>39013</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>39014</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>39015</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>39016</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>39017</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>39018</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>39019</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>39020</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>39021</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>39022</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>39023</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>39024</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>39025</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>39026</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>39027</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>39028</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>39029</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>39030</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>39031</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>39032</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>39033</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>39034</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>39035</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>39036</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>39037</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>39038</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>39039</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>39040</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>39041</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>39042</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>39043</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>39044</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>39045</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>39046</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>39047</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>39048</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>39049</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>39050</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>39051</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>39052</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>39053</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>39054</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>39055</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>39056</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>39057</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>39058</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>39059</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>39060</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>39061</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>39062</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>39063</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>39064</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>39065</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>39066</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>39067</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>39068</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>39069</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>39070</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>39071</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>39072</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>39073</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>39074</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>39075</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>39076</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>39077</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>39078</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>39079</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>39080</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>39081</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>39082</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>39084</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>39085</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>39086</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>39087</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>39088</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>39089</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>39090</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>39091</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>39092</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>39093</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>39094</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>39095</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>39096</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>39097</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>39098</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>39099</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>39100</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>39101</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>39102</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>39103</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>39104</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>39105</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>39106</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>39107</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>39108</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>39109</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>39110</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>39111</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>39112</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>39113</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>39114</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>39115</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>39116</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>39117</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>39118</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>39119</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>39120</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>39121</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>39122</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>39123</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>39124</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>39125</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>39126</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>39127</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>39128</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>39129</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>39130</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>39131</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>39132</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>39133</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>39134</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>39135</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>39136</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>39137</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>39138</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>39139</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>39140</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>39141</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>39142</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>39143</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>39144</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>39145</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>39146</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>39147</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>39148</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>39149</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>39150</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>39151</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>39152</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>39153</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>39154</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>39155</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>39156</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>39157</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>39158</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>39159</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>39160</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>39161</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>39162</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>39163</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>39164</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>39165</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>39166</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>39167</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>39168</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>39169</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>39170</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>39171</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>39172</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>39173</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>39174</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>39175</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>39176</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>39177</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>39178</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>39179</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>39180</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>39181</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>39182</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>39183</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>39184</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>39185</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>39186</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>39187</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>39188</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>39190</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>39191</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>39192</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>39193</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>39194</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>39195</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>39196</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>39197</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>39198</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>39199</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>39200</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>39201</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>39202</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>39203</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>39204</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>39205</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>39206</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>39207</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>39208</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>39209</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>39210</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>39211</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>39212</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>39213</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>39214</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>39215</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>39216</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>39217</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>39218</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>39219</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>39220</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>39221</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>39222</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>39223</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>39224</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>39225</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>39226</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>39227</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>39228</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>39229</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>39230</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>39231</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>39232</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>39233</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>39234</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>39235</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>39236</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>39237</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>39238</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>39239</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>39240</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>39241</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>39242</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>39243</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>39244</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>39245</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>39246</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>39247</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>39248</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>39249</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>39250</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>39251</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>39252</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>39253</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>39254</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>39255</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>39256</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>39257</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>39258</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>39259</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>39260</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>39261</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>39262</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>39263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>raw!$B$1:$B$365</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="365"/>
+                <c:pt idx="0">
+                  <c:v>131.98125870000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.438199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.26261679999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.40008090000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.06597480000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135.40008090000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136.26261679999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>197.04571530000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>204.5982927</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>299.98732050000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>253.36960060000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>252.1387082</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>319.34212239999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>363.16845919999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>346.72385409999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>340.8519728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>366.20533929999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>293.24238070000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>238.82483149999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>265.8677864</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>264.60244649999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>304.07649609999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>293.24238070000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>267.13658420000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>323.57992460000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>433.35379560000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>332.15165910000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>446.88166699999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>415.14069619999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>426.67902359999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>640.63574340000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>709.74973050000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>687.7157168</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>801.89203880000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>828.36510109999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>527.4528206</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>455.45771159999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>542.58117830000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>679.01337460000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>666.07870549999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>825.93809969999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>768.90917620000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>757.32149389999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>867.75302339999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>852.85973730000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>761.94447630000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>838.1139124</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>835.6705852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>782.94756719999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>651.16802940000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>711.97503740000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>683.35661300000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>508.88604529999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>514.41608670000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>785.30144819999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>954.95151569999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>872.75028550000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>794.75746300000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>745.83446270000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>663.93676879999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>531.21195120000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>474.65442990000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>494.30632450000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>518.12180790000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>478.19356629999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>544.48946269999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>589.44311649999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>599.4865873</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>599.4865873</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>601.50694869999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>623.98831399999995</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>583.4636342</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>488.90142120000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>516.26704329999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>531.21195120000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>487.10734550000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>483.53052000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>481.74776609999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>467.62128250000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>455.45771159999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>460.64819360000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>453.7350323</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>410.25108030000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>402.17535099999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>358.64027060000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>335.03745309999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>346.72385409999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>375.40299349999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>375.40299349999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>330.71412070000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>339.3929708</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>322.16376880000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>313.74142710000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>306.82023980000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>322.16376880000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>289.23752639999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>282.63274949999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>259.57561889999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>240.01811219999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>224.77030569999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>215.67085800000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>216.79652179999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>216.79652179999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>238.82483149999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>227.07886360000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>194.91767129999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>184.47536049999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>187.5735024</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>189.6553614</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>174.3609605</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>175.35772040000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>165.5361537</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>165.5361537</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>158.8532802</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>150.49190340000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>145.0610375</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>145.95824880000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>140.62242309999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>147.76218249999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>143.27611189999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>182.42633259999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>223.62108989999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>240.01811219999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>247.24942909999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>225.9228961</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>184.47536049999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>160.74658790000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>148.6689106</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>138.3455113</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130.2905997</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>122.8366146</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>117.2122761</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>112.5111837</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>109.438199</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>112.5111837</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>112.5111837</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>111.7383675</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>111.7383675</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>106.413847</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>99.064435200000005</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>94.098288409999995</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>90.640311969999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>83.945759760000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>85.261167369999995</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>82.642050830000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>82.642050830000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>82.642050830000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>83.292444619999998</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>81.350013989999994</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>78.800849700000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>76.298051909999998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>73.234426880000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>71.430686069999993</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>24.422632329999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>67.900245589999997</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>65.603383120000004</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>65.036230750000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>66.173357240000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>72.630317309999995</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>76.298051909999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>76.298051909999998</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>71.430686069999993</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>73.234426880000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>73.234426880000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>70.242482269999996</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>64.471896580000006</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>61.692373539999998</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>54.28020763</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>57.39037338</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>55.305909210000003</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>56.342621200000004</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>54.791683980000002</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>53.265486590000002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>52.261715989999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>50.776526029999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>49.799998960000003</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>49.315803819999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>48.834315830000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>46.467347599999997</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>45.07940387</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45.07940387</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>49.315803819999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>46.00202109</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>43.266202210000003</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>41.934204389999998</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>42.819552129999998</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>45.07940387</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>46.00202109</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>46.00202109</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>45.07940387</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44.622105300000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44.622105300000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>43.715508440000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>43.266202210000003</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>41.934204389999998</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>41.495498689999998</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>41.059433069999997</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>40.62600346</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>40.195205819999998</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>39.767036060000002</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>39.767036060000002</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>38.080553979999998</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>34.438090500000001</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>34.046276339999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>34.046276339999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>33.65702744</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>32.886208240000002</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>34.046276339999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>32.886208240000002</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>32.886208240000002</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>32.12559847</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>32.12559847</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>31.003750629999999</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>31.003750629999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>30.268512319999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>29.904678050000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>29.543361130000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>29.184557130000002</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>28.47447004</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>28.123177980000001</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>27.42807432</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>27.084253660000002</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>26.742914379999998</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>26.742914379999998</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>27.084253660000002</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>26.742914379999998</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>26.742914379999998</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>27.42807432</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>26.404051920000001</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>25.733739079999999</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>25.402279490000002</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>25.402279490000002</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>24.746730769999999</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>24.422632329999999</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>25.073278269999999</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>32.50462933</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>35.22943162</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>37.66546211</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>38.498253179999999</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>36.843083759999999</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>35.22943162</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>32.886208240000002</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>32.12559847</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>31.37516347</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>30.63486837</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>29.904678050000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>29.184557130000002</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>28.82826159</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>27.774380910000001</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>27.774380910000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>27.42807432</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>27.084253660000002</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>26.742914379999998</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>26.067661690000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>25.733739079999999</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>26.067661690000001</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>25.733739079999999</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>25.402279490000002</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>24.746730769999999</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>24.746730769999999</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>24.422632329999999</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>24.422632329999999</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>24.100978250000001</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>24.100978250000001</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>23.781763829999999</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>24.100978250000001</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>24.100978250000001</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24.422632329999999</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>24.100978250000001</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>24.100978250000001</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>24.746730769999999</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>25.073278269999999</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>24.746730769999999</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>25.402279490000002</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>27.084253660000002</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>28.123177980000001</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>27.42807432</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>26.742914379999998</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>26.067661690000001</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>26.067661690000001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>25.402279490000002</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>25.073278269999999</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>26.067661690000001</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>28.82826159</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>26.067661690000001</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>26.067661690000001</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>27.42807432</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>27.42807432</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>27.774380910000001</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>26.742914379999998</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>27.42807432</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>26.404051920000001</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>24.746730769999999</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>24.746730769999999</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>24.100978250000001</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>23.781763829999999</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>23.781763829999999</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>23.150635080000001</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>22.529208090000001</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>21.315305939999998</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>21.017833830000001</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>21.017833830000001</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>21.615174570000001</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>22.222120799999999</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>26.404051920000001</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>32.886208240000002</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>29.184557130000002</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>28.47447004</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>28.123177980000001</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>25.733739079999999</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>25.402279490000002</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>25.073278269999999</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>22.838711249999999</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>23.464984359999999</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>28.47447004</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>28.47447004</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>28.123177980000001</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>28.47447004</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>26.067661690000001</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>27.42807432</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>28.123177980000001</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>32.12559847</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>33.270339499999999</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>43.715508440000001</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>56.865115420000002</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>51.26886562</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>45.07940387</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>41.934204389999998</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>41.495498689999998</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>38.498253179999999</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>36.03108478</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>49.315803819999999</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>62.242670400000002</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>62.79576754</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>61.692373539999998</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>73.234426880000001</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>91.325979399999994</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>88.601041429999995</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>81.994575060000003</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>115.6329975</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>101.2376587</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>143.27611189999999</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>129.4499481</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>120.40769760000001</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>101.2376587</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>85.92326645</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>113.2870518</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>99.064435200000005</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>102.7014959</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>128.61241100000001</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>130.2905997</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>146.85862950000001</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>161.69806170000001</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>142.38839189999999</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>158.8532802</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>157.91144070000001</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>169.4258926</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>145.95824880000001</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>166.50373970000001</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>167.47455640000001</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>168.44860639999999</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>228.23821079999999</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>191.75038989999999</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>293.24238070000001</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>234.08572899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A59-4582-AD64-545560672CF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="574348784"/>
+        <c:axId val="574349744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="574348784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="39265"/>
+          <c:min val="38899"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="dd/mm/yyyy;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574349744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="61"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="574349744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Daily Flow (MCM/day)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574348784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hourly!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hourly!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2094.1063005598403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2657.1610656054618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3753.8419984628604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5889.8847835648139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5953.8898923611114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9089.1371319444443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11052.679579861111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10101.276452546295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9198.5817476851862</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8632.3433182870376</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7684.453342592592</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6148.2864722222221</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5493.6855312500002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3922.2927199538617</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2969.1948014507248</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2391.1116921702796</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2040.4865625296809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D28E-4CE5-B804-4963867104B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="157367744"/>
+        <c:axId val="157388864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="157367744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="384"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (hr)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157388864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="48"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="157388864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Flow (m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157367744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9273B392-611B-423D-98B6-90702149E623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BF40E4-E803-4D0D-8C8C-C1DFADC39113}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,2936 +5096,4038 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60E9A70-A059-4A18-9BAA-EFE09A8837A2}">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>1</v>
+        <v>38899</v>
       </c>
       <c r="B1">
         <v>131.98125870000001</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>38899</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>38900</v>
       </c>
       <c r="B2">
         <v>109.438199</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>39263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>38901</v>
       </c>
       <c r="B3">
         <v>136.26261679999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>38902</v>
       </c>
       <c r="B4">
         <v>135.40008090000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>38903</v>
       </c>
       <c r="B5">
         <v>114.06597480000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>38904</v>
       </c>
       <c r="B6">
         <v>135.40008090000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>38905</v>
       </c>
       <c r="B7">
         <v>136.26261679999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>38906</v>
       </c>
       <c r="B8">
         <v>197.04571530000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>38907</v>
       </c>
       <c r="B9">
         <v>204.5982927</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>38908</v>
       </c>
       <c r="B10">
         <v>299.98732050000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>38909</v>
       </c>
       <c r="B11">
         <v>253.36960060000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>38910</v>
       </c>
       <c r="B12">
         <v>252.1387082</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>38911</v>
       </c>
       <c r="B13">
         <v>319.34212239999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>38912</v>
       </c>
       <c r="B14">
         <v>363.16845919999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>38913</v>
       </c>
       <c r="B15">
         <v>346.72385409999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>38914</v>
       </c>
       <c r="B16">
         <v>340.8519728</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>38915</v>
       </c>
       <c r="B17">
         <v>366.20533929999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>38916</v>
       </c>
       <c r="B18">
         <v>293.24238070000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>38917</v>
       </c>
       <c r="B19">
         <v>238.82483149999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>38918</v>
       </c>
       <c r="B20">
         <v>265.8677864</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>38919</v>
       </c>
       <c r="B21">
         <v>264.60244649999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>38920</v>
       </c>
       <c r="B22">
         <v>304.07649609999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>38921</v>
       </c>
       <c r="B23">
         <v>293.24238070000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>38922</v>
       </c>
       <c r="B24">
         <v>267.13658420000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>38923</v>
       </c>
       <c r="B25">
         <v>323.57992460000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>38924</v>
       </c>
       <c r="B26">
         <v>433.35379560000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>38925</v>
       </c>
       <c r="B27">
         <v>332.15165910000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>38926</v>
       </c>
       <c r="B28">
         <v>446.88166699999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>38927</v>
       </c>
       <c r="B29">
         <v>415.14069619999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>38928</v>
       </c>
       <c r="B30">
         <v>426.67902359999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>38929</v>
       </c>
       <c r="B31">
         <v>640.63574340000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>38930</v>
       </c>
       <c r="B32">
         <v>709.74973050000006</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>38931</v>
       </c>
       <c r="B33">
         <v>687.7157168</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>38932</v>
       </c>
       <c r="B34">
         <v>801.89203880000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>38933</v>
       </c>
       <c r="B35">
         <v>828.36510109999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>38934</v>
       </c>
       <c r="B36">
         <v>527.4528206</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>38935</v>
       </c>
       <c r="B37">
         <v>455.45771159999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38936</v>
       </c>
       <c r="B38">
         <v>542.58117830000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38937</v>
       </c>
       <c r="B39">
         <v>679.01337460000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38938</v>
       </c>
       <c r="B40">
         <v>666.07870549999996</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38939</v>
       </c>
       <c r="B41">
         <v>825.93809969999995</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>38940</v>
       </c>
       <c r="B42">
         <v>768.90917620000005</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>38941</v>
       </c>
       <c r="B43">
         <v>757.32149389999995</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>38942</v>
       </c>
       <c r="B44">
         <v>867.75302339999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>38943</v>
       </c>
       <c r="B45">
         <v>852.85973730000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>38944</v>
       </c>
       <c r="B46">
         <v>761.94447630000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>38945</v>
       </c>
       <c r="B47">
         <v>838.1139124</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>38946</v>
       </c>
       <c r="B48">
         <v>835.6705852</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>38947</v>
       </c>
       <c r="B49">
         <v>782.94756719999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>38948</v>
       </c>
       <c r="B50">
         <v>651.16802940000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>38949</v>
       </c>
       <c r="B51">
         <v>711.97503740000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>38950</v>
       </c>
       <c r="B52">
         <v>683.35661300000004</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>38951</v>
       </c>
       <c r="B53">
         <v>508.88604529999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>38952</v>
       </c>
       <c r="B54">
         <v>514.41608670000005</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>38953</v>
       </c>
       <c r="B55">
         <v>785.30144819999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>38954</v>
       </c>
       <c r="B56">
         <v>954.95151569999996</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>38955</v>
       </c>
       <c r="B57">
         <v>872.75028550000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>38956</v>
       </c>
       <c r="B58">
         <v>794.75746300000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>38957</v>
       </c>
       <c r="B59">
         <v>745.83446270000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>38958</v>
       </c>
       <c r="B60">
         <v>663.93676879999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>38959</v>
       </c>
       <c r="B61">
         <v>531.21195120000004</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>38960</v>
       </c>
       <c r="B62">
         <v>474.65442990000003</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>38961</v>
       </c>
       <c r="B63">
         <v>494.30632450000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>38962</v>
       </c>
       <c r="B64">
         <v>518.12180790000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>38963</v>
       </c>
       <c r="B65">
         <v>478.19356629999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>38964</v>
       </c>
       <c r="B66">
         <v>544.48946269999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>38965</v>
       </c>
       <c r="B67">
         <v>589.44311649999997</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>38966</v>
       </c>
       <c r="B68">
         <v>599.4865873</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>38967</v>
       </c>
       <c r="B69">
         <v>599.4865873</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>38968</v>
       </c>
       <c r="B70">
         <v>601.50694869999995</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>38969</v>
       </c>
       <c r="B71">
         <v>623.98831399999995</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>38970</v>
       </c>
       <c r="B72">
         <v>583.4636342</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>38971</v>
       </c>
       <c r="B73">
         <v>488.90142120000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>38972</v>
       </c>
       <c r="B74">
         <v>516.26704329999995</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>38973</v>
       </c>
       <c r="B75">
         <v>531.21195120000004</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>38974</v>
       </c>
       <c r="B76">
         <v>487.10734550000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>38975</v>
       </c>
       <c r="B77">
         <v>483.53052000000002</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>38976</v>
       </c>
       <c r="B78">
         <v>481.74776609999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>38977</v>
       </c>
       <c r="B79">
         <v>467.62128250000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>38978</v>
       </c>
       <c r="B80">
         <v>455.45771159999998</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>38979</v>
       </c>
       <c r="B81">
         <v>460.64819360000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>38980</v>
       </c>
       <c r="B82">
         <v>453.7350323</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>38981</v>
       </c>
       <c r="B83">
         <v>410.25108030000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>38982</v>
       </c>
       <c r="B84">
         <v>402.17535099999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>38983</v>
       </c>
       <c r="B85">
         <v>358.64027060000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>38984</v>
       </c>
       <c r="B86">
         <v>335.03745309999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>38985</v>
       </c>
       <c r="B87">
         <v>346.72385409999998</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>38986</v>
       </c>
       <c r="B88">
         <v>375.40299349999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>38987</v>
       </c>
       <c r="B89">
         <v>375.40299349999998</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>38988</v>
       </c>
       <c r="B90">
         <v>330.71412070000002</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>38989</v>
       </c>
       <c r="B91">
         <v>339.3929708</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>38990</v>
       </c>
       <c r="B92">
         <v>322.16376880000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>38991</v>
       </c>
       <c r="B93">
         <v>313.74142710000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>38992</v>
       </c>
       <c r="B94">
         <v>306.82023980000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>38993</v>
       </c>
       <c r="B95">
         <v>322.16376880000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>38994</v>
       </c>
       <c r="B96">
         <v>289.23752639999998</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>38995</v>
       </c>
       <c r="B97">
         <v>282.63274949999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>38996</v>
       </c>
       <c r="B98">
         <v>259.57561889999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>38997</v>
       </c>
       <c r="B99">
         <v>240.01811219999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>38998</v>
       </c>
       <c r="B100">
         <v>224.77030569999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>38999</v>
       </c>
       <c r="B101">
         <v>215.67085800000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>39000</v>
       </c>
       <c r="B102">
         <v>216.79652179999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>39001</v>
       </c>
       <c r="B103">
         <v>216.79652179999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>39002</v>
       </c>
       <c r="B104">
         <v>238.82483149999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>39003</v>
       </c>
       <c r="B105">
         <v>227.07886360000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>39004</v>
       </c>
       <c r="B106">
         <v>194.91767129999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>39005</v>
       </c>
       <c r="B107">
         <v>184.47536049999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>39006</v>
       </c>
       <c r="B108">
         <v>187.5735024</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>39007</v>
       </c>
       <c r="B109">
         <v>189.6553614</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>39008</v>
       </c>
       <c r="B110">
         <v>174.3609605</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>39009</v>
       </c>
       <c r="B111">
         <v>175.35772040000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>39010</v>
       </c>
       <c r="B112">
         <v>165.5361537</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>39011</v>
       </c>
       <c r="B113">
         <v>165.5361537</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>39012</v>
       </c>
       <c r="B114">
         <v>158.8532802</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>39013</v>
       </c>
       <c r="B115">
         <v>150.49190340000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>39014</v>
       </c>
       <c r="B116">
         <v>145.0610375</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>39015</v>
       </c>
       <c r="B117">
         <v>145.95824880000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>39016</v>
       </c>
       <c r="B118">
         <v>140.62242309999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>39017</v>
       </c>
       <c r="B119">
         <v>147.76218249999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>39018</v>
       </c>
       <c r="B120">
         <v>143.27611189999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>39019</v>
       </c>
       <c r="B121">
         <v>182.42633259999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>39020</v>
       </c>
       <c r="B122">
         <v>223.62108989999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>39021</v>
       </c>
       <c r="B123">
         <v>240.01811219999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>39022</v>
       </c>
       <c r="B124">
         <v>247.24942909999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>39023</v>
       </c>
       <c r="B125">
         <v>225.9228961</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>39024</v>
       </c>
       <c r="B126">
         <v>184.47536049999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>39025</v>
       </c>
       <c r="B127">
         <v>160.74658790000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>39026</v>
       </c>
       <c r="B128">
         <v>148.6689106</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>39027</v>
       </c>
       <c r="B129">
         <v>138.3455113</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>39028</v>
       </c>
       <c r="B130">
         <v>130.2905997</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>39029</v>
       </c>
       <c r="B131">
         <v>122.8366146</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>39030</v>
       </c>
       <c r="B132">
         <v>117.2122761</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>39031</v>
       </c>
       <c r="B133">
         <v>112.5111837</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>39032</v>
       </c>
       <c r="B134">
         <v>109.438199</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>39033</v>
       </c>
       <c r="B135">
         <v>112.5111837</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>39034</v>
       </c>
       <c r="B136">
         <v>112.5111837</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>39035</v>
       </c>
       <c r="B137">
         <v>111.7383675</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>39036</v>
       </c>
       <c r="B138">
         <v>111.7383675</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>39037</v>
       </c>
       <c r="B139">
         <v>106.413847</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>39038</v>
       </c>
       <c r="B140">
         <v>99.064435200000005</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>39039</v>
       </c>
       <c r="B141">
         <v>94.098288409999995</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>39040</v>
       </c>
       <c r="B142">
         <v>90.640311969999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>39041</v>
       </c>
       <c r="B143">
         <v>83.945759760000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>39042</v>
       </c>
       <c r="B144">
         <v>85.261167369999995</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>39043</v>
       </c>
       <c r="B145">
         <v>82.642050830000002</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>39044</v>
       </c>
       <c r="B146">
         <v>82.642050830000002</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>39045</v>
       </c>
       <c r="B147">
         <v>82.642050830000002</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>39046</v>
       </c>
       <c r="B148">
         <v>83.292444619999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>39047</v>
       </c>
       <c r="B149">
         <v>81.350013989999994</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>39048</v>
       </c>
       <c r="B150">
         <v>78.800849700000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>39049</v>
       </c>
       <c r="B151">
         <v>76.298051909999998</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>39050</v>
       </c>
       <c r="B152">
         <v>73.234426880000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>39051</v>
       </c>
       <c r="B153">
         <v>71.430686069999993</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>39052</v>
       </c>
       <c r="B154">
         <v>24.422632329999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>39053</v>
       </c>
       <c r="B155">
         <v>67.900245589999997</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>39054</v>
       </c>
       <c r="B156">
         <v>65.603383120000004</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>39055</v>
       </c>
       <c r="B157">
         <v>65.036230750000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>39056</v>
       </c>
       <c r="B158">
         <v>66.173357240000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>39057</v>
       </c>
       <c r="B159">
         <v>72.630317309999995</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>39058</v>
       </c>
       <c r="B160">
         <v>76.298051909999998</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>39059</v>
       </c>
       <c r="B161">
         <v>76.298051909999998</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>39060</v>
       </c>
       <c r="B162">
         <v>71.430686069999993</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>39061</v>
       </c>
       <c r="B163">
         <v>73.234426880000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>39062</v>
       </c>
       <c r="B164">
         <v>73.234426880000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>39063</v>
       </c>
       <c r="B165">
         <v>70.242482269999996</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>39064</v>
       </c>
       <c r="B166">
         <v>64.471896580000006</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>39065</v>
       </c>
       <c r="B167">
         <v>61.692373539999998</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>39066</v>
       </c>
       <c r="B168">
         <v>54.28020763</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>39067</v>
       </c>
       <c r="B169">
         <v>57.39037338</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>39068</v>
       </c>
       <c r="B170">
         <v>55.305909210000003</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>39069</v>
       </c>
       <c r="B171">
         <v>56.342621200000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>39070</v>
       </c>
       <c r="B172">
         <v>54.791683980000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>39071</v>
       </c>
       <c r="B173">
         <v>53.265486590000002</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>39072</v>
       </c>
       <c r="B174">
         <v>52.261715989999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>39073</v>
       </c>
       <c r="B175">
         <v>50.776526029999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>39074</v>
       </c>
       <c r="B176">
         <v>49.799998960000003</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>39075</v>
       </c>
       <c r="B177">
         <v>49.315803819999999</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>39076</v>
       </c>
       <c r="B178">
         <v>48.834315830000001</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>39077</v>
       </c>
       <c r="B179">
         <v>46.467347599999997</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>39078</v>
       </c>
       <c r="B180">
         <v>45.07940387</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>39079</v>
       </c>
       <c r="B181">
         <v>45.07940387</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>39080</v>
       </c>
       <c r="B182">
         <v>49.315803819999999</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>39081</v>
       </c>
       <c r="B183">
         <v>46.00202109</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>39082</v>
       </c>
       <c r="B184">
         <v>43.266202210000003</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>39083</v>
       </c>
       <c r="B185">
         <v>41.934204389999998</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>39084</v>
       </c>
       <c r="B186">
         <v>42.819552129999998</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>39085</v>
       </c>
       <c r="B187">
         <v>45.07940387</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>39086</v>
       </c>
       <c r="B188">
         <v>46.00202109</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>39087</v>
       </c>
       <c r="B189">
         <v>46.00202109</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>39088</v>
       </c>
       <c r="B190">
         <v>45.07940387</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>39089</v>
       </c>
       <c r="B191">
         <v>44.622105300000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>39090</v>
       </c>
       <c r="B192">
         <v>44.622105300000001</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>39091</v>
       </c>
       <c r="B193">
         <v>43.715508440000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>39092</v>
       </c>
       <c r="B194">
         <v>43.266202210000003</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>39093</v>
       </c>
       <c r="B195">
         <v>41.934204389999998</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>39094</v>
       </c>
       <c r="B196">
         <v>41.495498689999998</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>39095</v>
       </c>
       <c r="B197">
         <v>41.059433069999997</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>39096</v>
       </c>
       <c r="B198">
         <v>40.62600346</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>39097</v>
       </c>
       <c r="B199">
         <v>40.195205819999998</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>39098</v>
       </c>
       <c r="B200">
         <v>39.767036060000002</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>39099</v>
       </c>
       <c r="B201">
         <v>39.767036060000002</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>39100</v>
       </c>
       <c r="B202">
         <v>38.080553979999998</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>39101</v>
       </c>
       <c r="B203">
         <v>34.438090500000001</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>39102</v>
       </c>
       <c r="B204">
         <v>34.046276339999999</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>39103</v>
       </c>
       <c r="B205">
         <v>34.046276339999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>39104</v>
       </c>
       <c r="B206">
         <v>33.65702744</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>39105</v>
       </c>
       <c r="B207">
         <v>32.886208240000002</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>39106</v>
       </c>
       <c r="B208">
         <v>34.046276339999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>39107</v>
       </c>
       <c r="B209">
         <v>32.886208240000002</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>39108</v>
       </c>
       <c r="B210">
         <v>32.886208240000002</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>39109</v>
       </c>
       <c r="B211">
         <v>32.12559847</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>39110</v>
       </c>
       <c r="B212">
         <v>32.12559847</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>39111</v>
       </c>
       <c r="B213">
         <v>31.003750629999999</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>39112</v>
       </c>
       <c r="B214">
         <v>31.003750629999999</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>39113</v>
       </c>
       <c r="B215">
         <v>30.268512319999999</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>39114</v>
       </c>
       <c r="B216">
         <v>29.904678050000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>39115</v>
       </c>
       <c r="B217">
         <v>29.543361130000001</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>39116</v>
       </c>
       <c r="B218">
         <v>29.184557130000002</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>39117</v>
       </c>
       <c r="B219">
         <v>28.47447004</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>39118</v>
       </c>
       <c r="B220">
         <v>28.123177980000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>39119</v>
       </c>
       <c r="B221">
         <v>27.42807432</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>39120</v>
       </c>
       <c r="B222">
         <v>27.084253660000002</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>39121</v>
       </c>
       <c r="B223">
         <v>26.742914379999998</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>39122</v>
       </c>
       <c r="B224">
         <v>26.742914379999998</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>39123</v>
       </c>
       <c r="B225">
         <v>27.084253660000002</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>39124</v>
       </c>
       <c r="B226">
         <v>26.742914379999998</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>39125</v>
       </c>
       <c r="B227">
         <v>26.742914379999998</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>39126</v>
       </c>
       <c r="B228">
         <v>27.42807432</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>39127</v>
       </c>
       <c r="B229">
         <v>26.404051920000001</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>39128</v>
       </c>
       <c r="B230">
         <v>25.733739079999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>39129</v>
       </c>
       <c r="B231">
         <v>25.402279490000002</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>39130</v>
       </c>
       <c r="B232">
         <v>25.402279490000002</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>39131</v>
       </c>
       <c r="B233">
         <v>24.746730769999999</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>39132</v>
       </c>
       <c r="B234">
         <v>24.422632329999999</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>39133</v>
       </c>
       <c r="B235">
         <v>25.073278269999999</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>39134</v>
       </c>
       <c r="B236">
         <v>32.50462933</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>39135</v>
       </c>
       <c r="B237">
         <v>35.22943162</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>39136</v>
       </c>
       <c r="B238">
         <v>37.66546211</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>39137</v>
       </c>
       <c r="B239">
         <v>38.498253179999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>39138</v>
       </c>
       <c r="B240">
         <v>36.843083759999999</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>39139</v>
       </c>
       <c r="B241">
         <v>35.22943162</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>39140</v>
       </c>
       <c r="B242">
         <v>32.886208240000002</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>39141</v>
       </c>
       <c r="B243">
         <v>32.12559847</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>39142</v>
       </c>
       <c r="B244">
         <v>31.37516347</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>39143</v>
       </c>
       <c r="B245">
         <v>30.63486837</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>39144</v>
       </c>
       <c r="B246">
         <v>29.904678050000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>39145</v>
       </c>
       <c r="B247">
         <v>29.184557130000002</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>39146</v>
       </c>
       <c r="B248">
         <v>28.82826159</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>39147</v>
       </c>
       <c r="B249">
         <v>27.774380910000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>39148</v>
       </c>
       <c r="B250">
         <v>27.774380910000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>39149</v>
       </c>
       <c r="B251">
         <v>27.42807432</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>39150</v>
       </c>
       <c r="B252">
         <v>27.084253660000002</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>39151</v>
       </c>
       <c r="B253">
         <v>26.742914379999998</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>39152</v>
       </c>
       <c r="B254">
         <v>26.067661690000001</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>39153</v>
       </c>
       <c r="B255">
         <v>25.733739079999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>39154</v>
       </c>
       <c r="B256">
         <v>26.067661690000001</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>39155</v>
       </c>
       <c r="B257">
         <v>25.733739079999999</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>39156</v>
       </c>
       <c r="B258">
         <v>25.402279490000002</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>39157</v>
       </c>
       <c r="B259">
         <v>24.746730769999999</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>39158</v>
       </c>
       <c r="B260">
         <v>24.746730769999999</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>39159</v>
       </c>
       <c r="B261">
         <v>24.422632329999999</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>39160</v>
       </c>
       <c r="B262">
         <v>24.422632329999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>39161</v>
       </c>
       <c r="B263">
         <v>24.100978250000001</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>39162</v>
       </c>
       <c r="B264">
         <v>24.100978250000001</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>39163</v>
       </c>
       <c r="B265">
         <v>23.781763829999999</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>39164</v>
       </c>
       <c r="B266">
         <v>24.100978250000001</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>39165</v>
       </c>
       <c r="B267">
         <v>24.100978250000001</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>39166</v>
       </c>
       <c r="B268">
         <v>24.422632329999999</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>39167</v>
       </c>
       <c r="B269">
         <v>24.100978250000001</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>39168</v>
       </c>
       <c r="B270">
         <v>24.100978250000001</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>39169</v>
       </c>
       <c r="B271">
         <v>24.746730769999999</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>39170</v>
       </c>
       <c r="B272">
         <v>25.073278269999999</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>39171</v>
       </c>
       <c r="B273">
         <v>24.746730769999999</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>39172</v>
       </c>
       <c r="B274">
         <v>25.402279490000002</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>39173</v>
       </c>
       <c r="B275">
         <v>27.084253660000002</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>39174</v>
       </c>
       <c r="B276">
         <v>28.123177980000001</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>39175</v>
       </c>
       <c r="B277">
         <v>27.42807432</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>39176</v>
       </c>
       <c r="B278">
         <v>26.742914379999998</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>39177</v>
       </c>
       <c r="B279">
         <v>26.067661690000001</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>39178</v>
       </c>
       <c r="B280">
         <v>26.067661690000001</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>39179</v>
       </c>
       <c r="B281">
         <v>25.402279490000002</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>39180</v>
       </c>
       <c r="B282">
         <v>25.073278269999999</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>39181</v>
       </c>
       <c r="B283">
         <v>26.067661690000001</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>39182</v>
       </c>
       <c r="B284">
         <v>28.82826159</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>39183</v>
       </c>
       <c r="B285">
         <v>26.067661690000001</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>39184</v>
       </c>
       <c r="B286">
         <v>26.067661690000001</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>39185</v>
       </c>
       <c r="B287">
         <v>27.42807432</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>39186</v>
       </c>
       <c r="B288">
         <v>27.42807432</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>39187</v>
       </c>
       <c r="B289">
         <v>27.774380910000001</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>39188</v>
       </c>
       <c r="B290">
         <v>26.742914379999998</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>39189</v>
       </c>
       <c r="B291">
         <v>27.42807432</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>39190</v>
       </c>
       <c r="B292">
         <v>26.404051920000001</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>39191</v>
       </c>
       <c r="B293">
         <v>24.746730769999999</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>39192</v>
       </c>
       <c r="B294">
         <v>24.746730769999999</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>39193</v>
       </c>
       <c r="B295">
         <v>24.100978250000001</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>39194</v>
       </c>
       <c r="B296">
         <v>23.781763829999999</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>39195</v>
       </c>
       <c r="B297">
         <v>23.781763829999999</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>39196</v>
       </c>
       <c r="B298">
         <v>23.150635080000001</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>39197</v>
       </c>
       <c r="B299">
         <v>22.529208090000001</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>39198</v>
       </c>
       <c r="B300">
         <v>21.315305939999998</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>39199</v>
       </c>
       <c r="B301">
         <v>21.017833830000001</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>39200</v>
       </c>
       <c r="B302">
         <v>21.017833830000001</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>39201</v>
       </c>
       <c r="B303">
         <v>21.615174570000001</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>39202</v>
       </c>
       <c r="B304">
         <v>22.222120799999999</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>39203</v>
       </c>
       <c r="B305">
         <v>26.404051920000001</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>39204</v>
       </c>
       <c r="B306">
         <v>32.886208240000002</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>39205</v>
       </c>
       <c r="B307">
         <v>29.184557130000002</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>39206</v>
       </c>
       <c r="B308">
         <v>28.47447004</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>39207</v>
       </c>
       <c r="B309">
         <v>28.123177980000001</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>39208</v>
       </c>
       <c r="B310">
         <v>25.733739079999999</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>39209</v>
       </c>
       <c r="B311">
         <v>25.402279490000002</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>39210</v>
       </c>
       <c r="B312">
         <v>25.073278269999999</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>39211</v>
       </c>
       <c r="B313">
         <v>22.838711249999999</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>39212</v>
       </c>
       <c r="B314">
         <v>23.464984359999999</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>39213</v>
       </c>
       <c r="B315">
         <v>28.47447004</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>39214</v>
       </c>
       <c r="B316">
         <v>28.47447004</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>39215</v>
       </c>
       <c r="B317">
         <v>28.123177980000001</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>39216</v>
       </c>
       <c r="B318">
         <v>28.47447004</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>39217</v>
       </c>
       <c r="B319">
         <v>26.067661690000001</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>39218</v>
       </c>
       <c r="B320">
         <v>27.42807432</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>39219</v>
       </c>
       <c r="B321">
         <v>28.123177980000001</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>39220</v>
       </c>
       <c r="B322">
         <v>32.12559847</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>39221</v>
       </c>
       <c r="B323">
         <v>33.270339499999999</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>39222</v>
       </c>
       <c r="B324">
         <v>43.715508440000001</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>39223</v>
       </c>
       <c r="B325">
         <v>56.865115420000002</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>39224</v>
       </c>
       <c r="B326">
         <v>51.26886562</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>39225</v>
       </c>
       <c r="B327">
         <v>45.07940387</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>39226</v>
       </c>
       <c r="B328">
         <v>41.934204389999998</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>39227</v>
       </c>
       <c r="B329">
         <v>41.495498689999998</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>39228</v>
       </c>
       <c r="B330">
         <v>38.498253179999999</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>39229</v>
       </c>
       <c r="B331">
         <v>36.03108478</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>39230</v>
       </c>
       <c r="B332">
         <v>49.315803819999999</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>39231</v>
       </c>
       <c r="B333">
         <v>62.242670400000002</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>39232</v>
       </c>
       <c r="B334">
         <v>62.79576754</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>39233</v>
       </c>
       <c r="B335">
         <v>61.692373539999998</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>39234</v>
       </c>
       <c r="B336">
         <v>73.234426880000001</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>39235</v>
       </c>
       <c r="B337">
         <v>91.325979399999994</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>39236</v>
       </c>
       <c r="B338">
         <v>88.601041429999995</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>39237</v>
       </c>
       <c r="B339">
         <v>81.994575060000003</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>39238</v>
       </c>
       <c r="B340">
         <v>115.6329975</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>39239</v>
       </c>
       <c r="B341">
         <v>101.2376587</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>39240</v>
       </c>
       <c r="B342">
         <v>143.27611189999999</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>39241</v>
       </c>
       <c r="B343">
         <v>129.4499481</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>39242</v>
       </c>
       <c r="B344">
         <v>120.40769760000001</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>39243</v>
       </c>
       <c r="B345">
         <v>101.2376587</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>39244</v>
       </c>
       <c r="B346">
         <v>85.92326645</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>39245</v>
       </c>
       <c r="B347">
         <v>113.2870518</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>39246</v>
       </c>
       <c r="B348">
         <v>99.064435200000005</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>39247</v>
       </c>
       <c r="B349">
         <v>102.7014959</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>39248</v>
       </c>
       <c r="B350">
         <v>128.61241100000001</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>39249</v>
       </c>
       <c r="B351">
         <v>130.2905997</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>39250</v>
       </c>
       <c r="B352">
         <v>146.85862950000001</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>39251</v>
       </c>
       <c r="B353">
         <v>161.69806170000001</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>39252</v>
       </c>
       <c r="B354">
         <v>142.38839189999999</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>39253</v>
       </c>
       <c r="B355">
         <v>158.8532802</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>39254</v>
       </c>
       <c r="B356">
         <v>157.91144070000001</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>39255</v>
       </c>
       <c r="B357">
         <v>169.4258926</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>39256</v>
       </c>
       <c r="B358">
         <v>145.95824880000001</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>39257</v>
       </c>
       <c r="B359">
         <v>166.50373970000001</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>39258</v>
       </c>
       <c r="B360">
         <v>167.47455640000001</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>39259</v>
       </c>
       <c r="B361">
         <v>168.44860639999999</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>39260</v>
       </c>
       <c r="B362">
         <v>228.23821079999999</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>39261</v>
       </c>
       <c r="B363">
         <v>191.75038989999999</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>39262</v>
       </c>
       <c r="B364">
         <v>293.24238070000001</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>39263</v>
       </c>
       <c r="B365">
         <v>234.08572899999999</v>
       </c>
+      <c r="C365">
+        <v>364</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3855,9 +9135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB9E33C-19D3-4221-B9F6-CBEF58A95A52}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7168,7 +12446,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7294,7 +12572,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7318,7 +12596,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>49</v>
       </c>
       <c r="B2" s="2">
@@ -7333,11 +12611,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>50</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B5" si="0">E$1+(B$5-E$1)*EXP((A3-A$2-E$2)/E$4)</f>
+        <f t="shared" ref="B3:B4" si="0">E$1+(B$5-E$1)*EXP((A3-A$2-E$2)/E$4)</f>
         <v>2657.1610656054618</v>
       </c>
       <c r="D3" t="s">
@@ -7348,7 +12626,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>51</v>
       </c>
       <c r="B4" s="2">
@@ -7364,7 +12642,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <f>'event window'!A2</f>
         <v>52</v>
       </c>
@@ -7381,7 +12659,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <f>'event window'!A3</f>
         <v>53</v>
       </c>
@@ -7391,7 +12669,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <f>'event window'!A4</f>
         <v>54</v>
       </c>
@@ -7401,7 +12679,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <f>'event window'!A5</f>
         <v>55</v>
       </c>
@@ -7411,7 +12689,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <f>'event window'!A6</f>
         <v>56</v>
       </c>
@@ -7421,7 +12699,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <f>'event window'!A7</f>
         <v>57</v>
       </c>
@@ -7431,7 +12709,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <f>'event window'!A8</f>
         <v>58</v>
       </c>
@@ -7441,7 +12719,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <f>'event window'!A9</f>
         <v>59</v>
       </c>
@@ -7451,7 +12729,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <f>'event window'!A10</f>
         <v>60</v>
       </c>
@@ -7461,7 +12739,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <f>'event window'!A11</f>
         <v>61</v>
       </c>
@@ -7471,7 +12749,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>62</v>
       </c>
       <c r="B15" s="2">
@@ -7480,7 +12758,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>63</v>
       </c>
       <c r="B16" s="2">
@@ -7489,7 +12767,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>64</v>
       </c>
       <c r="B17" s="2">
@@ -7498,7 +12776,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>65</v>
       </c>
       <c r="B18" s="2">
@@ -7507,11 +12785,11 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7526,8 +12804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B61F465-DAD4-4161-AE07-9CEA5B2BD343}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7716,5 +12994,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>